--- a/biology/Histoire de la zoologie et de la botanique/Georg_Cufodontis/Georg_Cufodontis.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georg_Cufodontis/Georg_Cufodontis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Georg Cufodontis  (3 août 1896 - 18 novembre 1974) est un botaniste autrichien.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georg Cufodontis est né à Trieste (alors sujet d'Autriche-Hongrie) de parents d'origine grecque[1]. Il obtient son doctorat en 1921 à Vienne et participe en 1930 à une expédition autrichienne au Costa Rica comme botaniste. Il travaille par la suite à l'université de Gênes mais doit quitter l'institution en raison de la montée du fascisme en Italie. Il retourne à Vienne et consacre la suite de sa carrière a la flore de l'Afrique de l'Est[1]. On lui doit notamment une imposante énumération des plantes d'Éthiopie publiée dans le Bulletin du Jardin botanique national de Belgique en 26 fascicules, pendant 20 ans.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georg Cufodontis est né à Trieste (alors sujet d'Autriche-Hongrie) de parents d'origine grecque. Il obtient son doctorat en 1921 à Vienne et participe en 1930 à une expédition autrichienne au Costa Rica comme botaniste. Il travaille par la suite à l'université de Gênes mais doit quitter l'institution en raison de la montée du fascisme en Italie. Il retourne à Vienne et consacre la suite de sa carrière a la flore de l'Afrique de l'Est. On lui doit notamment une imposante énumération des plantes d'Éthiopie publiée dans le Bulletin du Jardin botanique national de Belgique en 26 fascicules, pendant 20 ans.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications choisies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1932. Ergebnisse der Österreichischen Biologischen Costa-Rica-Expedition 1930. II. Teil, Annalen des Naturhistorischen Museums in Wien, 46e vol. (1932/33), pp. 225-241
 1933. Kritische Revision von Senecio Sectio Tephroseris. Feddes Repert. Beih., 70 : 266 pp.
